--- a/Assignment/Output/RestaurantsData.xlsx
+++ b/Assignment/Output/RestaurantsData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_workspace\Assignment\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\Vtnetzwelt\Assignment\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sath_25_May_2020_04_05_13" sheetId="41" r:id="rId2"/>
     <sheet name="Satho_25_May_2020_05_18_38" sheetId="42" r:id="rId3"/>
     <sheet name="Satho_25_May_2020_05_39_45" sheetId="43" r:id="rId4"/>
+    <sheet name="Satho_28_May_2020_12_35_11" sheetId="44" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Delivery Location</t>
   </si>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t>https://food.grab.com/th/en/restaurant/%E0%B8%84%E0%B8%A3%E0%B8%B1%E0%B8%A7%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%AD%E0%B8%A2%E0%B8%AD%E0%B8%B2%E0%B8%AB%E0%B8%B2%E0%B8%A3%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87-%E0%B8%96%E0%B8%99%E0%B8%99%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%99%E0%B9%8C-37-delivery/3-CZB2VBCZHA2FBA</t>
+  </si>
+  <si>
+    <t>KFC (เคเอฟซี) - บ้านสีลม</t>
+  </si>
+  <si>
+    <t>https://food.grab.com/th/en/restaurant/kfc-%E0%B9%80%E0%B8%84%E0%B9%80%E0%B8%AD%E0%B8%9F%E0%B8%8B%E0%B8%B5-%E0%B8%9A%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%A5%E0%B8%A1-delivery/THGFIST000007az</t>
+  </si>
+  <si>
+    <t>หมูทอดเฮียวิน (Mhoo-Tod) - ถนนจันทน์ 16</t>
+  </si>
+  <si>
+    <t>https://food.grab.com/th/en/restaurant/%E0%B8%AB%E0%B8%A1%E0%B8%B9%E0%B8%97%E0%B8%AD%E0%B8%94%E0%B9%80%E0%B8%AE%E0%B8%B5%E0%B8%A2%E0%B8%A7%E0%B8%B4%E0%B8%99-mhoo-tod-%E0%B8%96%E0%B8%99%E0%B8%99%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%99%E0%B9%8C-16-delivery/3-CYU2LB5DA7VVCN</t>
   </si>
 </sst>
 </file>
@@ -549,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -613,4 +626,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>